--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H2">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I2">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J2">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N2">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O2">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P2">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q2">
-        <v>0.446746195963</v>
+        <v>0.02575842011466667</v>
       </c>
       <c r="R2">
-        <v>4.020715763667</v>
+        <v>0.231825781032</v>
       </c>
       <c r="S2">
-        <v>0.005826192717466067</v>
+        <v>0.0002783108528527986</v>
       </c>
       <c r="T2">
-        <v>0.007646494948470753</v>
+        <v>0.0003776267358031013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H3">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I3">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J3">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.765053</v>
       </c>
       <c r="O3">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P3">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q3">
-        <v>3.790694254627445</v>
+        <v>0.2018301418685556</v>
       </c>
       <c r="R3">
-        <v>34.116248291647</v>
+        <v>1.816471276817</v>
       </c>
       <c r="S3">
-        <v>0.0494359335569586</v>
+        <v>0.002180705131168171</v>
       </c>
       <c r="T3">
-        <v>0.06488141305092718</v>
+        <v>0.002958894890339271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H4">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I4">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J4">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N4">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O4">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P4">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q4">
-        <v>0.04717274329188888</v>
+        <v>0.001842692638666667</v>
       </c>
       <c r="R4">
-        <v>0.424554689627</v>
+        <v>0.016584233748</v>
       </c>
       <c r="S4">
-        <v>0.0006151982846494379</v>
+        <v>1.990965895928087E-05</v>
       </c>
       <c r="T4">
-        <v>0.0008074073076535161</v>
+        <v>2.70144676238076E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H5">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I5">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J5">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N5">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O5">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P5">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q5">
-        <v>6.167710615210001</v>
+        <v>0.4627902060185</v>
       </c>
       <c r="R5">
-        <v>37.00626369126001</v>
+        <v>2.776741236111</v>
       </c>
       <c r="S5">
-        <v>0.0804355381075271</v>
+        <v>0.005000288696106541</v>
       </c>
       <c r="T5">
-        <v>0.0703775708131434</v>
+        <v>0.004523102324920999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3179663333333334</v>
+        <v>0.01692966666666667</v>
       </c>
       <c r="H6">
-        <v>0.9538990000000001</v>
+        <v>0.050789</v>
       </c>
       <c r="I6">
-        <v>0.1372197387470957</v>
+        <v>0.007576566749688815</v>
       </c>
       <c r="J6">
-        <v>0.1449031013610333</v>
+        <v>0.008018731266168228</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N6">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O6">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P6">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q6">
-        <v>0.069538283201</v>
+        <v>0.009010228188222223</v>
       </c>
       <c r="R6">
-        <v>0.625844548809</v>
+        <v>0.08109205369400001</v>
       </c>
       <c r="S6">
-        <v>0.000906876080494513</v>
+        <v>9.735241060202359E-05</v>
       </c>
       <c r="T6">
-        <v>0.001190215240838476</v>
+        <v>0.000132092847481049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H7">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I7">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J7">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N7">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O7">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P7">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q7">
-        <v>1.363579098958</v>
+        <v>1.476629111621333</v>
       </c>
       <c r="R7">
-        <v>12.272211890622</v>
+        <v>13.289662004592</v>
       </c>
       <c r="S7">
-        <v>0.01778297093031322</v>
+        <v>0.01595446869696037</v>
       </c>
       <c r="T7">
-        <v>0.02333898035672628</v>
+        <v>0.02164785840634285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H8">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I8">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J8">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>35.765053</v>
       </c>
       <c r="O8">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P8">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q8">
-        <v>11.57012975792244</v>
+        <v>11.57012975792245</v>
       </c>
       <c r="R8">
         <v>104.131167821302</v>
       </c>
       <c r="S8">
-        <v>0.1508906093546863</v>
+        <v>0.1250112649071766</v>
       </c>
       <c r="T8">
-        <v>0.198034005765619</v>
+        <v>0.1696218290505633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H9">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I9">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J9">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N9">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O9">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P9">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q9">
-        <v>0.1439827968868889</v>
+        <v>0.1056343355653333</v>
       </c>
       <c r="R9">
-        <v>1.295845171982</v>
+        <v>0.9507090200880002</v>
       </c>
       <c r="S9">
-        <v>0.001877736240942193</v>
+        <v>0.001141342593639388</v>
       </c>
       <c r="T9">
-        <v>0.002464405380529461</v>
+        <v>0.001548633384760776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H10">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I10">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J10">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N10">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O10">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P10">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q10">
-        <v>18.82536742186</v>
+        <v>26.52994584831101</v>
       </c>
       <c r="R10">
-        <v>112.95220453116</v>
+        <v>159.179675089866</v>
       </c>
       <c r="S10">
-        <v>0.2455090151141377</v>
+        <v>0.2866469225330261</v>
       </c>
       <c r="T10">
-        <v>0.21480962896478</v>
+        <v>0.2592917010472058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9705113333333334</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H11">
-        <v>2.911534</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I11">
-        <v>0.4188283401421813</v>
+        <v>0.434334830277983</v>
       </c>
       <c r="J11">
-        <v>0.4422798496676218</v>
+        <v>0.459682386310261</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N11">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O11">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P11">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q11">
-        <v>0.212247917066</v>
+        <v>0.5165210127737779</v>
       </c>
       <c r="R11">
-        <v>1.910231253594</v>
+        <v>4.648689114964001</v>
       </c>
       <c r="S11">
-        <v>0.002768008502101912</v>
+        <v>0.005580831547180536</v>
       </c>
       <c r="T11">
-        <v>0.003632829199967095</v>
+        <v>0.007572364421388266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H12">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I12">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J12">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N12">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O12">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P12">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q12">
-        <v>0.517565307081</v>
+        <v>0.7762084280213334</v>
       </c>
       <c r="R12">
-        <v>4.658087763729</v>
+        <v>6.985875852192</v>
       </c>
       <c r="S12">
-        <v>0.006749772578204901</v>
+        <v>0.008386664579290054</v>
       </c>
       <c r="T12">
-        <v>0.00885863280283275</v>
+        <v>0.01137946557559459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H13">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I13">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J13">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.765053</v>
       </c>
       <c r="O13">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P13">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q13">
-        <v>4.391602779554334</v>
+        <v>6.081982375072445</v>
       </c>
       <c r="R13">
-        <v>39.524425015989</v>
+        <v>54.737841375652</v>
       </c>
       <c r="S13">
-        <v>0.05727261779384524</v>
+        <v>0.0657137236797493</v>
       </c>
       <c r="T13">
-        <v>0.07516654595607007</v>
+        <v>0.08916382065695344</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H14">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I14">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J14">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N14">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O14">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P14">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q14">
-        <v>0.05465066202766666</v>
+        <v>0.05552800016533333</v>
       </c>
       <c r="R14">
-        <v>0.4918559582489999</v>
+        <v>0.499752001488</v>
       </c>
       <c r="S14">
-        <v>0.0007127207617827403</v>
+        <v>0.0005999609065474024</v>
       </c>
       <c r="T14">
-        <v>0.0009353991481099152</v>
+        <v>0.0008140583682835957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H15">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I15">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J15">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N15">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O15">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P15">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q15">
-        <v>7.145428584270001</v>
+        <v>13.945795460986</v>
       </c>
       <c r="R15">
-        <v>42.87257150562001</v>
+        <v>83.674772765916</v>
       </c>
       <c r="S15">
-        <v>0.09318634239539364</v>
+        <v>0.1506795141619627</v>
       </c>
       <c r="T15">
-        <v>0.08153396576998753</v>
+        <v>0.136299902314564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.368371</v>
+        <v>0.5101613333333334</v>
       </c>
       <c r="H16">
-        <v>1.105113</v>
+        <v>1.530484</v>
       </c>
       <c r="I16">
-        <v>0.1589720894413551</v>
+        <v>0.2283134967282431</v>
       </c>
       <c r="J16">
-        <v>0.167873434246598</v>
+        <v>0.2416377543005417</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N16">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O16">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P16">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q16">
-        <v>0.080561632587</v>
+        <v>0.2715156840737778</v>
       </c>
       <c r="R16">
-        <v>0.725054693283</v>
+        <v>2.443641156664</v>
       </c>
       <c r="S16">
-        <v>0.001050635912128572</v>
+        <v>0.002933633400693605</v>
       </c>
       <c r="T16">
-        <v>0.001378890569597757</v>
+        <v>0.003980507385146111</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H17">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I17">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J17">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N17">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O17">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P17">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q17">
-        <v>0.5178919721384999</v>
+        <v>0.562401216952</v>
       </c>
       <c r="R17">
-        <v>3.107351832831</v>
+        <v>3.374407301712</v>
       </c>
       <c r="S17">
-        <v>0.006754032745602532</v>
+        <v>0.006076551342768113</v>
       </c>
       <c r="T17">
-        <v>0.005909482661662584</v>
+        <v>0.005496655328596781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H18">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I18">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J18">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.765053</v>
       </c>
       <c r="O18">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P18">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q18">
-        <v>4.394374571161833</v>
+        <v>4.406695631920333</v>
       </c>
       <c r="R18">
-        <v>26.366247426971</v>
+        <v>26.440173791522</v>
       </c>
       <c r="S18">
-        <v>0.05730876581754166</v>
+        <v>0.0476128277325568</v>
       </c>
       <c r="T18">
-        <v>0.05014265857395266</v>
+        <v>0.0430690515891369</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H19">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I19">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J19">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N19">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O19">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P19">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q19">
-        <v>0.05468515518516665</v>
+        <v>0.040232769628</v>
       </c>
       <c r="R19">
-        <v>0.3281109311109999</v>
+        <v>0.241396617768</v>
       </c>
       <c r="S19">
-        <v>0.0007131706006058684</v>
+        <v>0.0004347012114078857</v>
       </c>
       <c r="T19">
-        <v>0.0006239930213296434</v>
+        <v>0.000393216907954926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H20">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I20">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J20">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N20">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O20">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P20">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q20">
-        <v>7.149938472795</v>
+        <v>10.1044153290315</v>
       </c>
       <c r="R20">
-        <v>28.59975389118</v>
+        <v>40.417661316126</v>
       </c>
       <c r="S20">
-        <v>0.09324515762408138</v>
+        <v>0.1091747255958613</v>
       </c>
       <c r="T20">
-        <v>0.05439028434503548</v>
+        <v>0.06583732595943308</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3686035</v>
+        <v>0.369637</v>
       </c>
       <c r="H21">
-        <v>0.7372069999999999</v>
+        <v>0.739274</v>
       </c>
       <c r="I21">
-        <v>0.1590724258163551</v>
+        <v>0.1654243676970244</v>
       </c>
       <c r="J21">
-        <v>0.1119862591794973</v>
+        <v>0.1167189654859369</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N21">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O21">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P21">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q21">
-        <v>0.0806124796395</v>
+        <v>0.1967264791673334</v>
       </c>
       <c r="R21">
-        <v>0.483674877837</v>
+        <v>1.180358875004</v>
       </c>
       <c r="S21">
-        <v>0.001051299028523646</v>
+        <v>0.002125561814430302</v>
       </c>
       <c r="T21">
-        <v>0.0009198405775169178</v>
+        <v>0.001922715700815236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H22">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I22">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J22">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.405011</v>
+        <v>1.521496</v>
       </c>
       <c r="N22">
-        <v>4.215033</v>
+        <v>4.564488</v>
       </c>
       <c r="O22">
-        <v>0.04245885300950829</v>
+        <v>0.03673310907796454</v>
       </c>
       <c r="P22">
-        <v>0.05276971215004659</v>
+        <v>0.04709307785339354</v>
       </c>
       <c r="Q22">
-        <v>0.40991664262</v>
+        <v>0.558751148048</v>
       </c>
       <c r="R22">
-        <v>3.68924978358</v>
+        <v>5.028760332432</v>
       </c>
       <c r="S22">
-        <v>0.005345884037921572</v>
+        <v>0.006037113606093211</v>
       </c>
       <c r="T22">
-        <v>0.007016121380354221</v>
+        <v>0.008191471807056214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H23">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I23">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J23">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.765053</v>
       </c>
       <c r="O23">
-        <v>0.3602683841868553</v>
+        <v>0.2878223347346259</v>
       </c>
       <c r="P23">
-        <v>0.4477572421950576</v>
+        <v>0.3689978865887579</v>
       </c>
       <c r="Q23">
-        <v>3.478191143197777</v>
+        <v>4.378095511204667</v>
       </c>
       <c r="R23">
-        <v>31.30372028878</v>
+        <v>39.40285960084201</v>
       </c>
       <c r="S23">
-        <v>0.04536045766382351</v>
+        <v>0.04730381328397509</v>
       </c>
       <c r="T23">
-        <v>0.0595326188484887</v>
+        <v>0.06418429040176495</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H24">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I24">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J24">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1483576666666666</v>
+        <v>0.108844</v>
       </c>
       <c r="N24">
-        <v>0.4450729999999999</v>
+        <v>0.326532</v>
       </c>
       <c r="O24">
-        <v>0.00448330750565912</v>
+        <v>0.002627794305395461</v>
       </c>
       <c r="P24">
-        <v>0.00557204987381064</v>
+        <v>0.003368920434805459</v>
       </c>
       <c r="Q24">
-        <v>0.04328384377555555</v>
+        <v>0.039971652872</v>
       </c>
       <c r="R24">
-        <v>0.3895545939799999</v>
+        <v>0.359744875848</v>
       </c>
       <c r="S24">
-        <v>0.0005644816176788811</v>
+        <v>0.0004318799348415044</v>
       </c>
       <c r="T24">
-        <v>0.0007408450161881043</v>
+        <v>0.0005859973061823538</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H25">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I25">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J25">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.39737</v>
+        <v>27.3360495</v>
       </c>
       <c r="N25">
-        <v>38.79474</v>
+        <v>54.672099</v>
       </c>
       <c r="O25">
-        <v>0.5861805221461226</v>
+        <v>0.659967616112128</v>
       </c>
       <c r="P25">
-        <v>0.4856871257558123</v>
+        <v>0.5640670792902598</v>
       </c>
       <c r="Q25">
-        <v>5.6592473554</v>
+        <v>10.038836146281</v>
       </c>
       <c r="R25">
-        <v>33.9554841324</v>
+        <v>60.233016877686</v>
       </c>
       <c r="S25">
-        <v>0.07380446890498278</v>
+        <v>0.1084661651251713</v>
       </c>
       <c r="T25">
-        <v>0.06457567586286588</v>
+        <v>0.09811504764413582</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2917533333333333</v>
+        <v>0.367238</v>
       </c>
       <c r="H26">
-        <v>0.8752599999999999</v>
+        <v>1.101714</v>
       </c>
       <c r="I26">
-        <v>0.1259074058530127</v>
+        <v>0.1643507385470607</v>
       </c>
       <c r="J26">
-        <v>0.1329573555452496</v>
+        <v>0.173942162637092</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.218697</v>
+        <v>0.5322153333333334</v>
       </c>
       <c r="N26">
-        <v>0.656091</v>
+        <v>1.596646</v>
       </c>
       <c r="O26">
-        <v>0.006608933151854636</v>
+        <v>0.01284914576988608</v>
       </c>
       <c r="P26">
-        <v>0.008213870025272926</v>
+        <v>0.0164730358327833</v>
       </c>
       <c r="Q26">
-        <v>0.06380557873999999</v>
+        <v>0.1954496945826667</v>
       </c>
       <c r="R26">
-        <v>0.57425020866</v>
+        <v>1.759047251244</v>
       </c>
       <c r="S26">
-        <v>0.0008321136286059923</v>
+        <v>0.002111766596979618</v>
       </c>
       <c r="T26">
-        <v>0.00109209443735268</v>
+        <v>0.002865355477952637</v>
       </c>
     </row>
   </sheetData>
